--- a/20_RequirementDefinition/End_User.xlsx
+++ b/20_RequirementDefinition/End_User.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE8171C-01EF-4D6A-8A01-C082DF7F439E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCBDB9-780C-4611-995B-B11E0ED561BE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="245">
   <si>
     <t>Mục Đích</t>
     <phoneticPr fontId="1"/>
@@ -1029,6 +1029,27 @@
   <si>
     <t>Quy trình xử lý hóa đơn điện tử</t>
   </si>
+  <si>
+    <t>- Là doanh nghiệp đang thực hiện giao dịch điện tử trong khai thuế với cơ quan thuế</t>
+  </si>
+  <si>
+    <t>- là doanh nghiệp có giao dịch qua ngân hàng</t>
+  </si>
+  <si>
+    <t>- có chữ ký hóa đơn điện tử</t>
+  </si>
+  <si>
+    <t>1. Điều kiện tiên quyết khi khởi tạo HĐĐT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Hồ sơ chuẩn bị </t>
+  </si>
+  <si>
+    <t>http://tuvan.webketoan.vn/entry/1492/</t>
+  </si>
+  <si>
+    <t>http://vnpt-einvoice.com.vn/dich-vu-hoa-don-dien-tu-vnpt-einvoice</t>
+  </si>
 </sst>
 </file>
 
@@ -1037,7 +1058,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1281,8 +1302,23 @@
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1426,6 +1462,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,7 +1860,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1871,6 +1913,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - アクセント 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1904,24 +1949,24 @@
     <cellStyle name="どちらでもない 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="メモ 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="リンク セル 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="入力 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="出力 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="悪い 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="計算 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="警告文 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="見出し 1 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="見出し 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="見出し 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="見出し 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="集計 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="出力 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="説明文 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="通貨 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="通貨 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="入力 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="標準 3" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="標準 4" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
     <cellStyle name="標準 7" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
     <cellStyle name="良い 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="見出し 1 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="見出し 2 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="見出し 3 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="見出し 4 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="計算 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="説明文 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="警告文 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="通貨 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="通貨 3" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="集計 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4073,10 +4118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C17"/>
+  <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4150,9 +4195,72 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="16" spans="2:3">
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" s="11" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="C18" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="C19" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="C20" s="15" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="C21" s="15" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="C23" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="C25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="C26" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -5164,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:C77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
@@ -5239,7 +5347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:U113"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A118" workbookViewId="0">
       <selection activeCell="L95" sqref="L95"/>
     </sheetView>
   </sheetViews>
@@ -6311,21 +6419,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100B8A5B8AC03A7F845885EE49AD84A0B2C" ma:contentTypeVersion="0" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="5168a02d99f95530430c7dcffc6e6ffc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ee9bf9f50330224c9ccb9925d6bc9fdf">
     <xsd:element name="properties">
@@ -6439,10 +6532,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C012200D-8D5E-4BB6-9B81-3D5E8EF9C98E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F46632-2FFB-4944-80C3-BA994C82FA06}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
@@ -6457,16 +6572,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15F46632-2FFB-4944-80C3-BA994C82FA06}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C012200D-8D5E-4BB6-9B81-3D5E8EF9C98E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
